--- a/public/defeitos/defeitos_lcm.xlsx
+++ b/public/defeitos/defeitos_lcm.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LCM" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="LCM" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">#REF!</definedName>
@@ -27,7 +27,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Terezinha Seabra Pinto</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="L1" authorId="0">
@@ -37,6 +37,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">no caso de PTH esse campo é relacionado a placa
 </t>
@@ -432,10 +433,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -456,11 +458,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -505,12 +502,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -527,7 +528,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
+          <fgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -620,112 +621,6 @@
 </table>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -735,10 +630,10 @@
   <dimension ref="A1:R123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.82"/>
@@ -815,7 +710,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>45664</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -871,7 +766,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>45664</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -927,7 +822,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>45664</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -983,7 +878,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>45664</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1039,7 +934,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>45664</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1095,7 +990,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>45664</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1151,7 +1046,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>45665</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1207,7 +1102,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>45665</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1263,7 +1158,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>45665</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1319,7 +1214,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>45665</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1375,7 +1270,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>45665</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1431,7 +1326,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>45665</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1487,7 +1382,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>45665</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1543,7 +1438,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>45666</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1599,7 +1494,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>45666</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1655,7 +1550,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>45666</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1711,7 +1606,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>45666</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1767,7 +1662,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>45666</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1823,7 +1718,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>45666</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1879,7 +1774,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>45667</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1935,7 +1830,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>45667</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1991,7 +1886,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>45667</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2047,7 +1942,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>45667</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2103,7 +1998,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>45667</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2159,7 +2054,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>45667</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2215,7 +2110,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>45667</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2271,7 +2166,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>45671</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2327,7 +2222,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>45671</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2383,7 +2278,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>45671</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2439,7 +2334,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>45671</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2495,7 +2390,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>45671</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2551,7 +2446,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>45671</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2607,7 +2502,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>45673</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2663,7 +2558,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>45673</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2719,7 +2614,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>45674</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2775,7 +2670,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>45674</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2831,7 +2726,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>45674</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2887,7 +2782,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>45677</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2943,7 +2838,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>45677</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2999,7 +2894,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>45677</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3055,7 +2950,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>45677</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3111,7 +3006,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>45677</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3167,7 +3062,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>45678</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3223,7 +3118,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>45678</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3279,7 +3174,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>45679</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3335,7 +3230,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>45679</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3391,7 +3286,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>45679</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3447,7 +3342,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>45680</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3503,7 +3398,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>45680</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3559,7 +3454,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>45680</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3615,7 +3510,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>45680</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3671,7 +3566,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>45681</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3727,7 +3622,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>45681</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3783,7 +3678,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>45681</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3839,7 +3734,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>45681</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3895,7 +3790,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>45681</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3951,7 +3846,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>45681</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4007,7 +3902,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>45685</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -4063,7 +3958,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>45685</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -4119,7 +4014,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>45685</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -4175,7 +4070,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>45685</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4231,7 +4126,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>45688</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -4287,7 +4182,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>45688</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -4343,7 +4238,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>45688</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4399,7 +4294,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>45688</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -4455,7 +4350,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>45687</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -4511,7 +4406,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>45687</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -4567,7 +4462,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>45687</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4623,7 +4518,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>45687</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4679,7 +4574,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>45688</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -4735,7 +4630,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>45688</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -4791,7 +4686,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>45688</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4847,7 +4742,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>45688</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -4903,7 +4798,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>45691</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4959,7 +4854,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>45691</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -5015,7 +4910,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>45691</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -5071,7 +4966,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>45694</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -5127,7 +5022,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>45694</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -5183,7 +5078,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>45694</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -5239,7 +5134,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>45694</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -5295,7 +5190,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>45695</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -5351,7 +5246,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>45695</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -5407,7 +5302,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>45695</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -5463,7 +5358,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>45698</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -5519,7 +5414,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>45698</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -5575,7 +5470,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>45698</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -5631,7 +5526,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>45698</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -5687,7 +5582,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>45699</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -5743,7 +5638,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>45699</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -5799,7 +5694,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>45699</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -5855,7 +5750,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>45700</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -5911,7 +5806,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>45700</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -5967,7 +5862,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -6023,7 +5918,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -6079,7 +5974,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -6135,7 +6030,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -6191,7 +6086,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -6247,7 +6142,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -6303,7 +6198,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -6359,7 +6254,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -6415,7 +6310,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -6471,7 +6366,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -6527,7 +6422,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -6583,7 +6478,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>45702</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -6639,7 +6534,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>45702</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -6695,7 +6590,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>45702</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -6751,7 +6646,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>45702</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -6807,7 +6702,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>45702</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -6863,7 +6758,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>45702</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -6919,7 +6814,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>45702</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -6975,7 +6870,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>45702</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -7031,7 +6926,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>45707</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -7087,7 +6982,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>45707</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -7143,7 +7038,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>45709</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -7199,7 +7094,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -7255,7 +7150,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="2" t="n">
         <v>45716</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -7311,7 +7206,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>45749</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -7367,7 +7262,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="2" t="n">
         <v>45749</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -7423,7 +7318,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>45749</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -7479,7 +7374,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="2" t="n">
         <v>45749</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -7535,7 +7430,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>45750</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -7591,7 +7486,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="2" t="n">
         <v>45751</v>
       </c>
       <c r="B123" s="1" t="s">

--- a/public/defeitos/defeitos_lcm.xlsx
+++ b/public/defeitos/defeitos_lcm.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="157">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -427,6 +427,99 @@
   </si>
   <si>
     <t xml:space="preserve">CALÇO SUPERIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEZEMBRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24321-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINHA TORTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLE VELHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILHA RUIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naciona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV-300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORTA ENCIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4Q23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV-400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORTA EMBAIXO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV-500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTO LÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV-600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMINHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we</t>
   </si>
 </sst>
 </file>
@@ -627,10 +720,10 @@
     <tabColor rgb="FFFFF2CC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R123"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K111" activeCellId="0" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7541,6 +7634,286 @@
         <v>66</v>
       </c>
     </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
+        <v>46004</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
+        <v>46005</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O127" s="1" t="n">
+        <v>5424</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O128" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/public/defeitos/defeitos_lcm.xlsx
+++ b/public/defeitos/defeitos_lcm.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="153">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -441,7 +441,7 @@
     <t xml:space="preserve">CARLOS DANIEL</t>
   </si>
   <si>
-    <t xml:space="preserve">DF</t>
+    <t xml:space="preserve">ASDAFA</t>
   </si>
   <si>
     <t xml:space="preserve">LINHA TORTA</t>
@@ -465,15 +465,12 @@
     <t xml:space="preserve">brasil</t>
   </si>
   <si>
-    <t xml:space="preserve">naciona</t>
+    <t xml:space="preserve">argentina</t>
   </si>
   <si>
     <t xml:space="preserve">TV-300</t>
   </si>
   <si>
-    <t xml:space="preserve">AS</t>
-  </si>
-  <si>
     <t xml:space="preserve">TORTA ENCIMA</t>
   </si>
   <si>
@@ -486,9 +483,6 @@
     <t xml:space="preserve">TV-400</t>
   </si>
   <si>
-    <t xml:space="preserve">TB</t>
-  </si>
-  <si>
     <t xml:space="preserve">TORTA EMBAIXO</t>
   </si>
   <si>
@@ -501,9 +495,6 @@
     <t xml:space="preserve">TV-500</t>
   </si>
   <si>
-    <t xml:space="preserve">GB</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALTO LÁ</t>
   </si>
   <si>
@@ -511,9 +502,6 @@
   </si>
   <si>
     <t xml:space="preserve">TV-600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HJ</t>
   </si>
   <si>
     <t xml:space="preserve">CAMINHO</t>
@@ -722,8 +710,8 @@
   </sheetPr>
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K111" activeCellId="0" sqref="K111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H103" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J124" activeCellId="0" sqref="J124:J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7641,7 +7629,7 @@
       <c r="B124" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -7656,7 +7644,7 @@
       <c r="G124" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H124" s="0" t="n">
+      <c r="H124" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I124" s="1" t="s">
@@ -7697,7 +7685,7 @@
       <c r="B125" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -7712,17 +7700,17 @@
       <c r="G125" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H125" s="0" t="n">
+      <c r="H125" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K125" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>132</v>
@@ -7734,10 +7722,10 @@
         <v>134</v>
       </c>
       <c r="O125" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P125" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="Q125" s="1" t="s">
         <v>137</v>
@@ -7753,7 +7741,7 @@
       <c r="B126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -7763,22 +7751,22 @@
         <v>127</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H126" s="0" t="n">
+      <c r="H126" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>132</v>
@@ -7790,10 +7778,10 @@
         <v>134</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q126" s="1" t="s">
         <v>137</v>
@@ -7809,7 +7797,7 @@
       <c r="B127" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -7819,22 +7807,22 @@
         <v>127</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H127" s="0" t="n">
+      <c r="H127" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>132</v>
@@ -7849,7 +7837,7 @@
         <v>5424</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q127" s="1" t="s">
         <v>137</v>
@@ -7865,7 +7853,7 @@
       <c r="B128" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -7875,22 +7863,22 @@
         <v>127</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H128" s="0" t="n">
+      <c r="H128" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>132</v>
@@ -7905,7 +7893,7 @@
         <v>524</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q128" s="1" t="s">
         <v>137</v>
